--- a/7-Gráficos/34. Gráfico de Preenchimento de Imagem - Material(1).xlsx
+++ b/7-Gráficos/34. Gráfico de Preenchimento de Imagem - Material(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Dropbox\Hashtag (1)\Hashtag\Online\Conteúdos\Planilhas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\cursos\excel\7-Gráficos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A149234E-FB3D-414E-B82B-C663888DDDA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD819DDD-F0CD-4D44-B2AB-A31C00A17AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D9EF0723-FC2A-41E0-948F-78F7601BC336}"/>
+    <workbookView xWindow="450" yWindow="2130" windowWidth="15375" windowHeight="7440" xr2:uid="{D9EF0723-FC2A-41E0-948F-78F7601BC336}"/>
   </bookViews>
   <sheets>
     <sheet name="Gráfico Shampoo" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,16 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
+    </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -186,7 +195,7 @@
                   <c:v>Vendas Realizadas</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R$19.000</c:v>
+                  <c:v>R$30.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Percentual Meta</c:v>
@@ -217,7 +226,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.6333333333333333</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -277,7 +286,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -359,7 +368,7 @@
                   <c:v>Vendas Realizadas</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>R$4.000</c:v>
+                  <c:v>R$16.000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Percentual Meta</c:v>
@@ -390,7 +399,7 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.13333333333333333</c:v>
+                  <c:v>0.53333333333333333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1580,11 +1589,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$C$5" inc="1000" max="30000" page="10" val="19000"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$C$5" inc="1000" max="30000" page="10" val="30000"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$C$5" inc="1000" max="30000" page="10" val="4000"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$C$5" inc="1000" max="30000" page="10" val="16000"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1918,9 +1927,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1958,7 +1967,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2064,7 +2073,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2206,7 +2215,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2216,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C4469AD-9599-46E8-8E26-4F6D2D7DD6F9}">
   <dimension ref="C1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2245,7 +2254,7 @@
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
-        <v>19000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
@@ -2256,7 +2265,7 @@
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <f>C5/C3</f>
-        <v>0.6333333333333333</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2299,8 +2308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6B6F35A-53B5-4AA8-8CC6-57CBB9D040F3}">
   <dimension ref="C1:C7"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2328,7 +2337,7 @@
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2">
-        <v>4000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="6" spans="3:3" x14ac:dyDescent="0.25">
@@ -2339,7 +2348,7 @@
     <row r="7" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <f>C5/C3</f>
-        <v>0.13333333333333333</v>
+        <v>0.53333333333333333</v>
       </c>
     </row>
   </sheetData>
